--- a/cadasta/questionnaires/tests/files/xls-form-copy.xlsx
+++ b/cadasta/questionnaires/tests/files/xls-form-copy.xlsx
@@ -5,22 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet name="survey" sheetId="2" r:id="rId5"/>
-    <sheet name="choices" sheetId="3" r:id="rId6"/>
-    <sheet name="settings" sheetId="4" r:id="rId7"/>
+    <sheet name="survey" sheetId="1" r:id="rId4"/>
+    <sheet name="choices" sheetId="2" r:id="rId5"/>
+    <sheet name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Untitled Question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>type</t>
   </si>
@@ -37,14 +30,76 @@
     <t>calculation</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>intro</t>
   </si>
   <si>
-    <t>This form showcases the different question types available in XLSForm. 
-The hints explain how these question types were created.</t>
+    <t>Este formulário é utilizado para capturar informação sobre os encontros com a comunidade durante o processo de delimitação.
+Estes encontros podem ser com a comunidade em geral, com a liderança, ou com povoados dentro da comunidade.  Podiam ser também seminários ao nível do posto administrativo ou distrito.
+O formulário devia ser preenchido cada vez que haja um encontro.
+Os encontros podem envolver actividades de:
+- divulgação das legislações
+- palestras, sessões de vídeo, etc.
+- sensibilização sobre o processo de delimitação da área comunitária
+- sensibilização sobre a criação da associação comunitária
+- escolha de representantes da associação 
+- encontros no ambito do DRP (historial da comunidade, organização social, etc)
+- encontros para confirmar os limites ou encontros de devolução
+O técnico pode usar o formulário para gravar informação sobre a data e lugar do encontro, o numero de participantes e os temas abordados.  Pode também gravar nomes e detalhes pessoais de representantes.
+Por favor deslizar para a frente para continuar.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>party_name</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>select_one parties</t>
+  </si>
+  <si>
+    <t>party_type</t>
+  </si>
+  <si>
+    <t>Party Type</t>
+  </si>
+  <si>
+    <t>select_one ten_type</t>
+  </si>
+  <si>
+    <t>tenure_type</t>
+  </si>
+  <si>
+    <t>Tenure Type</t>
+  </si>
+  <si>
+    <t>select_one land_type</t>
+  </si>
+  <si>
+    <t>location_type</t>
+  </si>
+  <si>
+    <t>Location type</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>location_geometry</t>
+  </si>
+  <si>
+    <t>Geom</t>
   </si>
   <si>
     <t>begin group</t>
@@ -56,9 +111,6 @@
     <t>Text question type</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>my_string</t>
   </si>
   <si>
@@ -170,9 +222,6 @@
     <t>Select one (type=select_one list2)</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>GPS question type</t>
   </si>
   <si>
@@ -351,6 +400,33 @@
   </si>
   <si>
     <t>option 8</t>
+  </si>
+  <si>
+    <t>parties</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>land_type</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>parcel</t>
+  </si>
+  <si>
+    <t>ten_type</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>Freehold</t>
   </si>
   <si>
     <t>title</t>
@@ -372,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -381,7 +457,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -393,6 +469,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -415,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -447,6 +528,94 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -484,6 +653,17 @@
         <color indexed="10"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -495,71 +675,95 @@
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -630,14 +834,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,7 +1025,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1392,7 +1596,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1646,622 +1850,635 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="17.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" ht="8.25" customHeight="1">
+      <c r="A12" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="51" customHeight="1">
+      <c r="A13" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="51" customHeight="1">
+      <c r="A18" t="s" s="18">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s" s="18">
+        <v>47</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="76.5" customHeight="1">
+      <c r="A24" t="s" s="18">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s" s="18">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s" s="18">
+        <v>60</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s" s="18">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" t="s" s="21">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s" s="21">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s" s="21">
+        <v>105</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" t="s" s="21">
+        <v>31</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.8516" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.3516" style="4" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="27" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="8.25" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="51" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="51" customHeight="1">
-      <c r="A14" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" ht="76.5" customHeight="1">
-      <c r="A20" t="s" s="13">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s" s="13">
-        <v>46</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" t="s" s="15">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s" s="15">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s" s="15">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s" s="15">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s" s="15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2272,255 +2489,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.6719" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="16" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.6719" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.3516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.3516" style="23" customWidth="1"/>
+    <col min="6" max="256" width="17.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="17">
-        <v>93</v>
-      </c>
-      <c r="B1" t="s" s="17">
+      <c r="A1" t="s" s="24">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s" s="24">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="24">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>111</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>113</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>115</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>118</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B10" s="27">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="17">
+      <c r="C10" t="s" s="26">
+        <v>119</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B11" s="27">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s" s="19">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s" s="19">
-        <v>96</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="19">
-        <v>98</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s" s="19">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s" s="19">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s" s="19">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s" s="19">
-        <v>102</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="C11" t="s" s="26">
+        <v>120</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B12" s="27">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="26">
+        <v>121</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B13" s="27">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="26">
+        <v>122</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B14" s="27">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="26">
+        <v>123</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B15" s="27">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="26">
+        <v>124</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="B17" s="27">
         <v>1</v>
       </c>
-      <c r="C8" t="s" s="19">
-        <v>104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B9" s="18">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s" s="19">
-        <v>105</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B10" s="18">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="19">
-        <v>106</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B11" s="18">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B12" s="18">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s" s="19">
-        <v>108</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B13" s="18">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="19">
-        <v>109</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B14" s="18">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s" s="19">
-        <v>110</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B15" s="18">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="19">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s" s="26">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s" s="26">
+        <v>127</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" t="s" s="26">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s" s="26">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s" s="26">
+        <v>130</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" t="s" s="26">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="26">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s" s="26">
+        <v>133</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2531,111 +2766,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.1719" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.1719" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.1719" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.1719" style="20" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.1719" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.1719" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.1719" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.1719" style="28" customWidth="1"/>
+    <col min="6" max="256" width="17.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="B1" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/cadasta/questionnaires/tests/files/xls-form-copy.xlsx
+++ b/cadasta/questionnaires/tests/files/xls-form-copy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Coporation</t>
   </si>
   <si>
     <t>land_type</t>
@@ -2483,7 +2495,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2720,31 +2732,57 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s" s="26">
         <v>128</v>
       </c>
-      <c r="B20" t="s" s="26">
+      <c r="C20" t="s" s="26">
         <v>129</v>
-      </c>
-      <c r="C20" t="s" s="26">
-        <v>130</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s" s="26">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s" s="26">
         <v>131</v>
-      </c>
-      <c r="B21" t="s" s="26">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s" s="26">
-        <v>133</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" t="s" s="26">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s" s="26">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s" s="26">
+        <v>134</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" t="s" s="26">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s" s="26">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s" s="26">
+        <v>137</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2776,10 +2814,10 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -2787,10 +2825,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>

--- a/cadasta/questionnaires/tests/files/xls-form-copy.xlsx
+++ b/cadasta/questionnaires/tests/files/xls-form-copy.xlsx
@@ -5,22 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet name="survey" sheetId="2" r:id="rId5"/>
-    <sheet name="choices" sheetId="3" r:id="rId6"/>
-    <sheet name="settings" sheetId="4" r:id="rId7"/>
+    <sheet name="survey" sheetId="1" r:id="rId4"/>
+    <sheet name="choices" sheetId="2" r:id="rId5"/>
+    <sheet name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Untitled Question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -37,14 +30,76 @@
     <t>calculation</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>intro</t>
   </si>
   <si>
-    <t>This form showcases the different question types available in XLSForm. 
-The hints explain how these question types were created.</t>
+    <t>Este formulário é utilizado para capturar informação sobre os encontros com a comunidade durante o processo de delimitação.
+Estes encontros podem ser com a comunidade em geral, com a liderança, ou com povoados dentro da comunidade.  Podiam ser também seminários ao nível do posto administrativo ou distrito.
+O formulário devia ser preenchido cada vez que haja um encontro.
+Os encontros podem envolver actividades de:
+- divulgação das legislações
+- palestras, sessões de vídeo, etc.
+- sensibilização sobre o processo de delimitação da área comunitária
+- sensibilização sobre a criação da associação comunitária
+- escolha de representantes da associação 
+- encontros no ambito do DRP (historial da comunidade, organização social, etc)
+- encontros para confirmar os limites ou encontros de devolução
+O técnico pode usar o formulário para gravar informação sobre a data e lugar do encontro, o numero de participantes e os temas abordados.  Pode também gravar nomes e detalhes pessoais de representantes.
+Por favor deslizar para a frente para continuar.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>party_name</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>select_one parties</t>
+  </si>
+  <si>
+    <t>party_type</t>
+  </si>
+  <si>
+    <t>Party Type</t>
+  </si>
+  <si>
+    <t>select_one ten_type</t>
+  </si>
+  <si>
+    <t>tenure_type</t>
+  </si>
+  <si>
+    <t>Tenure Type</t>
+  </si>
+  <si>
+    <t>select_one land_type</t>
+  </si>
+  <si>
+    <t>location_type</t>
+  </si>
+  <si>
+    <t>Location type</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>location_geometry</t>
+  </si>
+  <si>
+    <t>Geom</t>
   </si>
   <si>
     <t>begin group</t>
@@ -56,9 +111,6 @@
     <t>Text question type</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>my_string</t>
   </si>
   <si>
@@ -170,9 +222,6 @@
     <t>Select one (type=select_one list2)</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>GPS question type</t>
   </si>
   <si>
@@ -351,6 +400,45 @@
   </si>
   <si>
     <t>option 8</t>
+  </si>
+  <si>
+    <t>parties</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Coporation</t>
+  </si>
+  <si>
+    <t>land_type</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>parcel</t>
+  </si>
+  <si>
+    <t>ten_type</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>Freehold</t>
   </si>
   <si>
     <t>title</t>
@@ -372,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -381,7 +469,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -393,6 +481,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -415,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -447,6 +540,94 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -484,6 +665,17 @@
         <color indexed="10"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -495,71 +687,95 @@
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -630,14 +846,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,7 +1037,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1392,7 +1608,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1646,99 +1862,630 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="17.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" ht="8.25" customHeight="1">
+      <c r="A12" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="51" customHeight="1">
+      <c r="A13" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="51" customHeight="1">
+      <c r="A18" t="s" s="18">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s" s="18">
+        <v>47</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="76.5" customHeight="1">
+      <c r="A24" t="s" s="18">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s" s="18">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s" s="18">
+        <v>60</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s" s="18">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" t="s" s="21">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s" s="21">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s" s="21">
+        <v>105</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" t="s" s="21">
+        <v>31</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1748,779 +2495,305 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.8516" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.3516" style="4" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.6719" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.3516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.3516" style="23" customWidth="1"/>
+    <col min="6" max="256" width="17.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="5">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="24">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s" s="24">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="24">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>109</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>111</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>113</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s" s="26">
+        <v>115</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>118</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B10" s="27">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C10" t="s" s="26">
+        <v>119</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B11" s="27">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="C11" t="s" s="26">
+        <v>120</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B12" s="27">
         <v>5</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="C12" t="s" s="26">
+        <v>121</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B13" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="27" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="C13" t="s" s="26">
+        <v>122</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B14" s="27">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="C14" t="s" s="26">
+        <v>123</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" t="s" s="26">
+        <v>116</v>
+      </c>
+      <c r="B15" s="27">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="8.25" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="51" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="51" customHeight="1">
-      <c r="A14" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="C15" t="s" s="26">
+        <v>124</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" ht="76.5" customHeight="1">
-      <c r="A20" t="s" s="13">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s" s="13">
-        <v>46</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" t="s" s="15">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s" s="15">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s" s="15">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s" s="15">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s" s="15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A19" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s" s="26">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s" s="26">
+        <v>127</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s" s="26">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s" s="26">
+        <v>129</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s" s="26">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s" s="26">
+        <v>131</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" t="s" s="26">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s" s="26">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s" s="26">
+        <v>134</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" t="s" s="26">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s" s="26">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s" s="26">
+        <v>137</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.6719" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="16" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="17">
-        <v>93</v>
-      </c>
-      <c r="B1" t="s" s="17">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s" s="19">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s" s="19">
-        <v>96</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="19">
-        <v>98</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s" s="19">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s" s="19">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s" s="19">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s" s="19">
-        <v>102</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="19">
-        <v>104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B9" s="18">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s" s="19">
-        <v>105</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B10" s="18">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="19">
-        <v>106</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B11" s="18">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B12" s="18">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s" s="19">
-        <v>108</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B13" s="18">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="19">
-        <v>109</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B14" s="18">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s" s="19">
-        <v>110</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="B15" s="18">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="19">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2531,111 +2804,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.1719" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.1719" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.1719" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.1719" style="20" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.1719" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.1719" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.1719" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.1719" style="28" customWidth="1"/>
+    <col min="6" max="256" width="17.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="B1" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>